--- a/tradingview/pivot_points/pivot_points.xlsx
+++ b/tradingview/pivot_points/pivot_points.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,13 +5115,57 @@
         <v>48767.84</v>
       </c>
       <c r="D213" t="n">
-        <v>48888.61</v>
+        <v>51900</v>
       </c>
       <c r="E213" t="n">
-        <v>46700</v>
+        <v>46512</v>
       </c>
       <c r="F213" t="n">
-        <v>47781.84</v>
+        <v>51756.88</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>06-09-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>51756.88</v>
+      </c>
+      <c r="D214" t="n">
+        <v>52920</v>
+      </c>
+      <c r="E214" t="n">
+        <v>42843.05</v>
+      </c>
+      <c r="F214" t="n">
+        <v>46025.24</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13-09-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>46025.23</v>
+      </c>
+      <c r="D215" t="n">
+        <v>46941.94</v>
+      </c>
+      <c r="E215" t="n">
+        <v>43370</v>
+      </c>
+      <c r="F215" t="n">
+        <v>46880.48</v>
       </c>
     </row>
   </sheetData>
